--- a/samples/transform/image_grayscale_edge_sqr_hough_accumulator_r3.xlsx
+++ b/samples/transform/image_grayscale_edge_sqr_hough_accumulator_r3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\samples\transform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{961AAD44-201B-4D90-872A-C89FBCB8A4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C61BAB-1C36-4815-9A7C-A73394648651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{30615BBB-942F-424D-BD3C-92D2D9509C47}"/>
   </bookViews>
@@ -367,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -497,6 +497,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -542,9 +560,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,14 +611,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="53">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFF9C3CF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -607,7 +628,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,7 +638,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF63DCFD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -627,27 +648,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -677,6 +678,76 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFEBE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C3CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF63DCFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -687,12 +758,400 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C3CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF63DCFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF63DCFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF63DCFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF02A2CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFEBE"/>
+      <color rgb="FFF9C3CF"/>
+      <color rgb="FF63DCFD"/>
+      <color rgb="FF02A2CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1024,10 +1483,10 @@
   <dimension ref="A1:CP69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1065" ySplit="390" topLeftCell="AD35" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="AB9" sqref="AB9"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="AN39" sqref="AN39"/>
+      <pane xSplit="1065" ySplit="390" topLeftCell="L1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="AU9" sqref="AU1:AU1048576"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1846,7 @@
         <v>135.5</v>
       </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1532,7 +1991,7 @@
       <c r="AV10">
         <v>865629</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="4">
         <v>1153465</v>
       </c>
       <c r="AX10">
@@ -7635,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>66</v>
       </c>
@@ -7720,7 +8179,7 @@
       <c r="AB32">
         <v>838118</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="4">
         <v>1062871</v>
       </c>
       <c r="AD32">
@@ -8487,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>75</v>
       </c>
@@ -8668,7 +9127,7 @@
       <c r="BH35">
         <v>744279</v>
       </c>
-      <c r="BI35">
+      <c r="BI35" s="4">
         <v>1086130</v>
       </c>
       <c r="BJ35">
@@ -9055,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>81</v>
       </c>
@@ -9173,7 +9632,7 @@
       <c r="AM37">
         <v>1941559</v>
       </c>
-      <c r="AN37">
+      <c r="AN37" s="4">
         <v>2409414</v>
       </c>
       <c r="AO37">
@@ -9194,7 +9653,7 @@
       <c r="AT37">
         <v>195044</v>
       </c>
-      <c r="AU37">
+      <c r="AU37" s="3">
         <v>1637641</v>
       </c>
       <c r="AV37">
@@ -9762,7 +10221,7 @@
       <c r="AT39">
         <v>39900</v>
       </c>
-      <c r="AU39">
+      <c r="AU39" s="1">
         <v>1548760</v>
       </c>
       <c r="AV39">
@@ -10475,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>96</v>
       </c>
@@ -10647,7 +11106,7 @@
       <c r="BE42">
         <v>711817</v>
       </c>
-      <c r="BF42">
+      <c r="BF42" s="2">
         <v>2668804</v>
       </c>
       <c r="BG42">
@@ -10759,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:94" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>99</v>
       </c>
@@ -11895,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>111</v>
       </c>
@@ -12016,7 +12475,7 @@
       <c r="AN47">
         <v>765568</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="4">
         <v>1676226</v>
       </c>
       <c r="AP47">
@@ -13315,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>126</v>
       </c>
@@ -13451,7 +13910,7 @@
       <c r="AS52">
         <v>645844</v>
       </c>
-      <c r="AT52">
+      <c r="AT52" s="4">
         <v>1539136</v>
       </c>
       <c r="AU52">
@@ -14451,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>138</v>
       </c>
@@ -14605,7 +15064,7 @@
       <c r="AY56">
         <v>1422718</v>
       </c>
-      <c r="AZ56">
+      <c r="AZ56" s="4">
         <v>1427195</v>
       </c>
       <c r="BA56">
@@ -15303,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>147</v>
       </c>
@@ -15587,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>150</v>
       </c>
@@ -15720,7 +16179,7 @@
       <c r="AR60">
         <v>1038052</v>
       </c>
-      <c r="AS60">
+      <c r="AS60" s="1">
         <v>1528827</v>
       </c>
       <c r="AT60">
@@ -15871,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>153</v>
       </c>
@@ -16155,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>156</v>
       </c>
@@ -16324,7 +16783,7 @@
       <c r="BD62">
         <v>754721</v>
       </c>
-      <c r="BE62">
+      <c r="BE62" s="1">
         <v>1002992</v>
       </c>
       <c r="BF62">
@@ -17007,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>165</v>
       </c>
@@ -17146,7 +17605,7 @@
       <c r="AT65">
         <v>1455064</v>
       </c>
-      <c r="AU65">
+      <c r="AU65" s="4">
         <v>1588158</v>
       </c>
       <c r="AV65">
@@ -17859,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>174</v>
       </c>
@@ -18001,7 +18460,7 @@
       <c r="AU68">
         <v>1144267</v>
       </c>
-      <c r="AV68">
+      <c r="AV68" s="4">
         <v>1268263</v>
       </c>
       <c r="AW68">
@@ -18429,20 +18888,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:CK69">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
-      <formula>4500000</formula>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="between">
+      <formula>3500000</formula>
+      <formula>3000000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
+      <formula>3500000</formula>
+      <formula>4000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="between">
       <formula>4500000</formula>
       <formula>4000000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
-      <formula>3500000</formula>
-      <formula>4000000</formula>
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+      <formula>4500000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>3500000</formula>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
+      <formula>2500000</formula>
       <formula>3000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>2500000</formula>
+      <formula>2000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+      <formula>1500000</formula>
+      <formula>2000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
+      <formula>1500000</formula>
+      <formula>1250000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+      <formula>1000000</formula>
+      <formula>1250000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
